--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H2">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I2">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J2">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>96.3543542114473</v>
+        <v>99.91867449999999</v>
       </c>
       <c r="N2">
-        <v>96.3543542114473</v>
+        <v>199.837349</v>
       </c>
       <c r="O2">
-        <v>0.09882217640260263</v>
+        <v>0.09980137661138361</v>
       </c>
       <c r="P2">
-        <v>0.09882217640260263</v>
+        <v>0.07390657035918602</v>
       </c>
       <c r="Q2">
-        <v>219.6285078319336</v>
+        <v>232.177426863368</v>
       </c>
       <c r="R2">
-        <v>219.6285078319336</v>
+        <v>928.7097074534719</v>
       </c>
       <c r="S2">
-        <v>0.002655312225265691</v>
+        <v>0.002136479966066833</v>
       </c>
       <c r="T2">
-        <v>0.002655312225265691</v>
+        <v>0.001357695950819845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H3">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I3">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J3">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>287.673016673388</v>
+        <v>302.8987833333333</v>
       </c>
       <c r="N3">
-        <v>287.673016673388</v>
+        <v>908.6963499999999</v>
       </c>
       <c r="O3">
-        <v>0.2950408814694643</v>
+        <v>0.3025432002761394</v>
       </c>
       <c r="P3">
-        <v>0.2950408814694643</v>
+        <v>0.3360664613620876</v>
       </c>
       <c r="Q3">
-        <v>655.7170759178932</v>
+        <v>703.8349984754666</v>
       </c>
       <c r="R3">
-        <v>655.7170759178932</v>
+        <v>4223.0099908528</v>
       </c>
       <c r="S3">
-        <v>0.007927630093141741</v>
+        <v>0.006476638982412491</v>
       </c>
       <c r="T3">
-        <v>0.007927630093141741</v>
+        <v>0.006173687556872926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H4">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I4">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J4">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>139.832412323062</v>
+        <v>141.0632323333333</v>
       </c>
       <c r="N4">
-        <v>139.832412323062</v>
+        <v>423.189697</v>
       </c>
       <c r="O4">
-        <v>0.143413792043758</v>
+        <v>0.1408976334660855</v>
       </c>
       <c r="P4">
-        <v>0.143413792043758</v>
+        <v>0.1565097779425262</v>
       </c>
       <c r="Q4">
-        <v>318.7316682924244</v>
+        <v>327.7835546966027</v>
       </c>
       <c r="R4">
-        <v>318.7316682924244</v>
+        <v>1966.701328179616</v>
       </c>
       <c r="S4">
-        <v>0.003853471044131677</v>
+        <v>0.003016240671094949</v>
       </c>
       <c r="T4">
-        <v>0.003853471044131677</v>
+        <v>0.00287515292271805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H5">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I5">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J5">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>182.732692864418</v>
+        <v>183.5535736666667</v>
       </c>
       <c r="N5">
-        <v>182.732692864418</v>
+        <v>550.660721</v>
       </c>
       <c r="O5">
-        <v>0.1874128321086786</v>
+        <v>0.1833380939603272</v>
       </c>
       <c r="P5">
-        <v>0.1874128321086786</v>
+        <v>0.2036528483002774</v>
       </c>
       <c r="Q5">
-        <v>416.5178521963996</v>
+        <v>426.5168312005813</v>
       </c>
       <c r="R5">
-        <v>416.5178521963996</v>
+        <v>2559.100987203488</v>
       </c>
       <c r="S5">
-        <v>0.005035707595048823</v>
+        <v>0.003924777173047926</v>
       </c>
       <c r="T5">
-        <v>0.005035707595048823</v>
+        <v>0.003741191698741141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H6">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I6">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J6">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.75302304277</v>
+        <v>74.052367</v>
       </c>
       <c r="N6">
-        <v>68.75302304277</v>
+        <v>222.157101</v>
       </c>
       <c r="O6">
-        <v>0.07051392152382488</v>
+        <v>0.07396543443869841</v>
       </c>
       <c r="P6">
-        <v>0.07051392152382488</v>
+        <v>0.08216116505753535</v>
       </c>
       <c r="Q6">
-        <v>156.7144939468046</v>
+        <v>172.072819312688</v>
       </c>
       <c r="R6">
-        <v>156.7144939468046</v>
+        <v>1032.436915876128</v>
       </c>
       <c r="S6">
-        <v>0.001894680776011593</v>
+        <v>0.001583401694698509</v>
       </c>
       <c r="T6">
-        <v>0.001894680776011593</v>
+        <v>0.001509336457788855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H7">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I7">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J7">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>199.682148716699</v>
+        <v>199.6886825</v>
       </c>
       <c r="N7">
-        <v>199.682148716699</v>
+        <v>399.377365</v>
       </c>
       <c r="O7">
-        <v>0.2047963964516717</v>
+        <v>0.1994542612473658</v>
       </c>
       <c r="P7">
-        <v>0.2047963964516717</v>
+        <v>0.1477031769783876</v>
       </c>
       <c r="Q7">
-        <v>455.1521591549683</v>
+        <v>464.00940273268</v>
       </c>
       <c r="R7">
-        <v>455.1521591549683</v>
+        <v>1856.03761093072</v>
       </c>
       <c r="S7">
-        <v>0.005502796993389848</v>
+        <v>0.004269781116957577</v>
       </c>
       <c r="T7">
-        <v>0.005502796993389848</v>
+        <v>0.002713371819747264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H8">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I8">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J8">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>96.3543542114473</v>
+        <v>99.91867449999999</v>
       </c>
       <c r="N8">
-        <v>96.3543542114473</v>
+        <v>199.837349</v>
       </c>
       <c r="O8">
-        <v>0.09882217640260263</v>
+        <v>0.09980137661138361</v>
       </c>
       <c r="P8">
-        <v>0.09882217640260263</v>
+        <v>0.07390657035918602</v>
       </c>
       <c r="Q8">
-        <v>2811.486807464809</v>
+        <v>3134.190662516317</v>
       </c>
       <c r="R8">
-        <v>2811.486807464809</v>
+        <v>18805.1439750979</v>
       </c>
       <c r="S8">
-        <v>0.03399092114557026</v>
+        <v>0.02884059682615224</v>
       </c>
       <c r="T8">
-        <v>0.03399092114557026</v>
+        <v>0.02749154835431043</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H9">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I9">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J9">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>287.673016673388</v>
+        <v>302.8987833333333</v>
       </c>
       <c r="N9">
-        <v>287.673016673388</v>
+        <v>908.6963499999999</v>
       </c>
       <c r="O9">
-        <v>0.2950408814694643</v>
+        <v>0.3025432002761394</v>
       </c>
       <c r="P9">
-        <v>0.2950408814694643</v>
+        <v>0.3360664613620876</v>
       </c>
       <c r="Q9">
-        <v>8393.900803548191</v>
+        <v>9501.152243676794</v>
       </c>
       <c r="R9">
-        <v>8393.900803548191</v>
+        <v>85510.37019309115</v>
       </c>
       <c r="S9">
-        <v>0.1014823969863912</v>
+        <v>0.08742891889792541</v>
       </c>
       <c r="T9">
-        <v>0.1014823969863912</v>
+        <v>0.1250090124314569</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H10">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I10">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J10">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>139.832412323062</v>
+        <v>141.0632323333333</v>
       </c>
       <c r="N10">
-        <v>139.832412323062</v>
+        <v>423.189697</v>
       </c>
       <c r="O10">
-        <v>0.143413792043758</v>
+        <v>0.1408976334660855</v>
       </c>
       <c r="P10">
-        <v>0.143413792043758</v>
+        <v>0.1565097779425262</v>
       </c>
       <c r="Q10">
-        <v>4080.116417360224</v>
+        <v>4424.789137925395</v>
       </c>
       <c r="R10">
-        <v>4080.116417360224</v>
+        <v>39823.10224132855</v>
       </c>
       <c r="S10">
-        <v>0.04932867372488068</v>
+        <v>0.04071659107847262</v>
       </c>
       <c r="T10">
-        <v>0.04932867372488068</v>
+        <v>0.0582180462077761</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H11">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I11">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J11">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>182.732692864418</v>
+        <v>183.5535736666667</v>
       </c>
       <c r="N11">
-        <v>182.732692864418</v>
+        <v>550.660721</v>
       </c>
       <c r="O11">
-        <v>0.1874128321086786</v>
+        <v>0.1833380939603272</v>
       </c>
       <c r="P11">
-        <v>0.1874128321086786</v>
+        <v>0.2036528483002774</v>
       </c>
       <c r="Q11">
-        <v>5331.887276764025</v>
+        <v>5757.601364673504</v>
       </c>
       <c r="R11">
-        <v>5331.887276764025</v>
+        <v>51818.41228206152</v>
       </c>
       <c r="S11">
-        <v>0.06446260373705269</v>
+        <v>0.05298103323137827</v>
       </c>
       <c r="T11">
-        <v>0.06446260373705269</v>
+        <v>0.07575418666202854</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H12">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I12">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J12">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>68.75302304277</v>
+        <v>74.052367</v>
       </c>
       <c r="N12">
-        <v>68.75302304277</v>
+        <v>222.157101</v>
       </c>
       <c r="O12">
-        <v>0.07051392152382488</v>
+        <v>0.07396543443869841</v>
       </c>
       <c r="P12">
-        <v>0.07051392152382488</v>
+        <v>0.08216116505753535</v>
       </c>
       <c r="Q12">
-        <v>2006.118133840466</v>
+        <v>2322.831426157794</v>
       </c>
       <c r="R12">
-        <v>2006.118133840466</v>
+        <v>20905.48283542015</v>
       </c>
       <c r="S12">
-        <v>0.024254000806626</v>
+        <v>0.02137452754809374</v>
       </c>
       <c r="T12">
-        <v>0.024254000806626</v>
+        <v>0.0305620681767297</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H13">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I13">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J13">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>199.682148716699</v>
+        <v>199.6886825</v>
       </c>
       <c r="N13">
-        <v>199.682148716699</v>
+        <v>399.377365</v>
       </c>
       <c r="O13">
-        <v>0.2047963964516717</v>
+        <v>0.1994542612473658</v>
       </c>
       <c r="P13">
-        <v>0.2047963964516717</v>
+        <v>0.1477031769783876</v>
       </c>
       <c r="Q13">
-        <v>5826.44895913306</v>
+        <v>6263.718041032314</v>
       </c>
       <c r="R13">
-        <v>5826.44895913306</v>
+        <v>37582.30824619388</v>
       </c>
       <c r="S13">
-        <v>0.07044186250589785</v>
+        <v>0.05763828244867302</v>
       </c>
       <c r="T13">
-        <v>0.07044186250589785</v>
+        <v>0.05494219272051385</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H14">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I14">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J14">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>96.3543542114473</v>
+        <v>99.91867449999999</v>
       </c>
       <c r="N14">
-        <v>96.3543542114473</v>
+        <v>199.837349</v>
       </c>
       <c r="O14">
-        <v>0.09882217640260263</v>
+        <v>0.09980137661138361</v>
       </c>
       <c r="P14">
-        <v>0.09882217640260263</v>
+        <v>0.07390657035918602</v>
       </c>
       <c r="Q14">
-        <v>281.1609146076412</v>
+        <v>3.7374580196725</v>
       </c>
       <c r="R14">
-        <v>281.1609146076412</v>
+        <v>22.424748118035</v>
       </c>
       <c r="S14">
-        <v>0.003399240022137066</v>
+        <v>3.439181961364891E-05</v>
       </c>
       <c r="T14">
-        <v>0.003399240022137066</v>
+        <v>3.278310700713375E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H15">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I15">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J15">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>287.673016673388</v>
+        <v>302.8987833333333</v>
       </c>
       <c r="N15">
-        <v>287.673016673388</v>
+        <v>908.6963499999999</v>
       </c>
       <c r="O15">
-        <v>0.2950408814694643</v>
+        <v>0.3025432002761394</v>
       </c>
       <c r="P15">
-        <v>0.2950408814694643</v>
+        <v>0.3360664613620876</v>
       </c>
       <c r="Q15">
-        <v>839.4266054477882</v>
+        <v>11.32992899058333</v>
       </c>
       <c r="R15">
-        <v>839.4266054477882</v>
+        <v>101.96936091525</v>
       </c>
       <c r="S15">
-        <v>0.01014868128760609</v>
+        <v>0.0001042571908576882</v>
       </c>
       <c r="T15">
-        <v>0.01014868128760609</v>
+        <v>0.0001490706808717817</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H16">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I16">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J16">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.832412323062</v>
+        <v>141.0632323333333</v>
       </c>
       <c r="N16">
-        <v>139.832412323062</v>
+        <v>423.189697</v>
       </c>
       <c r="O16">
-        <v>0.143413792043758</v>
+        <v>0.1408976334660855</v>
       </c>
       <c r="P16">
-        <v>0.143413792043758</v>
+        <v>0.1565097779425262</v>
       </c>
       <c r="Q16">
-        <v>408.0293958928747</v>
+        <v>5.276470205428334</v>
       </c>
       <c r="R16">
-        <v>408.0293958928747</v>
+        <v>47.488231848855</v>
       </c>
       <c r="S16">
-        <v>0.004933082020532644</v>
+        <v>4.855369894369693E-05</v>
       </c>
       <c r="T16">
-        <v>0.004933082020532644</v>
+        <v>6.942382487803873E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H17">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I17">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J17">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>182.732692864418</v>
+        <v>183.5535736666667</v>
       </c>
       <c r="N17">
-        <v>182.732692864418</v>
+        <v>550.660721</v>
       </c>
       <c r="O17">
-        <v>0.1874128321086786</v>
+        <v>0.1833380939603272</v>
       </c>
       <c r="P17">
-        <v>0.1874128321086786</v>
+        <v>0.2036528483002774</v>
       </c>
       <c r="Q17">
-        <v>533.2119287700351</v>
+        <v>6.865821423001667</v>
       </c>
       <c r="R17">
-        <v>533.2119287700351</v>
+        <v>61.79239280701499</v>
       </c>
       <c r="S17">
-        <v>0.006446540875303946</v>
+        <v>6.317879442030246E-05</v>
       </c>
       <c r="T17">
-        <v>0.006446540875303946</v>
+        <v>9.033531235028754E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H18">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I18">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J18">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>68.75302304277</v>
+        <v>74.052367</v>
       </c>
       <c r="N18">
-        <v>68.75302304277</v>
+        <v>222.157101</v>
       </c>
       <c r="O18">
-        <v>0.07051392152382488</v>
+        <v>0.07396543443869841</v>
       </c>
       <c r="P18">
-        <v>0.07051392152382488</v>
+        <v>0.08216116505753535</v>
       </c>
       <c r="Q18">
-        <v>200.6205427761445</v>
+        <v>2.769928787635</v>
       </c>
       <c r="R18">
-        <v>200.6205427761445</v>
+        <v>24.929359088715</v>
       </c>
       <c r="S18">
-        <v>0.002425505619154783</v>
+        <v>2.548868527902387E-05</v>
       </c>
       <c r="T18">
-        <v>0.002425505619154783</v>
+        <v>3.644463885716189E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H19">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I19">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J19">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>199.682148716699</v>
+        <v>199.6886825</v>
       </c>
       <c r="N19">
-        <v>199.682148716699</v>
+        <v>399.377365</v>
       </c>
       <c r="O19">
-        <v>0.2047963964516717</v>
+        <v>0.1994542612473658</v>
       </c>
       <c r="P19">
-        <v>0.2047963964516717</v>
+        <v>0.1477031769783876</v>
       </c>
       <c r="Q19">
-        <v>582.6702490351612</v>
+        <v>7.4693551689125</v>
       </c>
       <c r="R19">
-        <v>582.6702490351612</v>
+        <v>44.816131013475</v>
       </c>
       <c r="S19">
-        <v>0.007044492770244611</v>
+        <v>6.87324684979404E-05</v>
       </c>
       <c r="T19">
-        <v>0.007044492770244611</v>
+        <v>6.551743684821456E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H20">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I20">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J20">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>96.3543542114473</v>
+        <v>99.91867449999999</v>
       </c>
       <c r="N20">
-        <v>96.3543542114473</v>
+        <v>199.837349</v>
       </c>
       <c r="O20">
-        <v>0.09882217640260263</v>
+        <v>0.09980137661138361</v>
       </c>
       <c r="P20">
-        <v>0.09882217640260263</v>
+        <v>0.07390657035918602</v>
       </c>
       <c r="Q20">
-        <v>4861.590081367545</v>
+        <v>4.4027165544935</v>
       </c>
       <c r="R20">
-        <v>4861.590081367545</v>
+        <v>26.416299326961</v>
       </c>
       <c r="S20">
-        <v>0.0587767030096296</v>
+        <v>4.051348075487801E-05</v>
       </c>
       <c r="T20">
-        <v>0.0587767030096296</v>
+        <v>3.861842117511922E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H21">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I21">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J21">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>287.673016673388</v>
+        <v>302.8987833333333</v>
       </c>
       <c r="N21">
-        <v>287.673016673388</v>
+        <v>908.6963499999999</v>
       </c>
       <c r="O21">
-        <v>0.2950408814694643</v>
+        <v>0.3025432002761394</v>
       </c>
       <c r="P21">
-        <v>0.2950408814694643</v>
+        <v>0.3360664613620876</v>
       </c>
       <c r="Q21">
-        <v>14514.63502591013</v>
+        <v>13.34662909001666</v>
       </c>
       <c r="R21">
-        <v>14514.63502591013</v>
+        <v>120.11966181015</v>
       </c>
       <c r="S21">
-        <v>0.1754821731023252</v>
+        <v>0.000122814719977605</v>
       </c>
       <c r="T21">
-        <v>0.1754821731023252</v>
+        <v>0.0001756049033886731</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H22">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I22">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J22">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>139.832412323062</v>
+        <v>141.0632323333333</v>
       </c>
       <c r="N22">
-        <v>139.832412323062</v>
+        <v>423.189697</v>
       </c>
       <c r="O22">
-        <v>0.143413792043758</v>
+        <v>0.1408976334660855</v>
       </c>
       <c r="P22">
-        <v>0.143413792043758</v>
+        <v>0.1565097779425262</v>
       </c>
       <c r="Q22">
-        <v>7055.289554550624</v>
+        <v>6.215669206303667</v>
       </c>
       <c r="R22">
-        <v>7055.289554550624</v>
+        <v>55.94102285673301</v>
       </c>
       <c r="S22">
-        <v>0.08529856525421294</v>
+        <v>5.719614053084126E-05</v>
       </c>
       <c r="T22">
-        <v>0.08529856525421294</v>
+        <v>8.178109866598105E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H23">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I23">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J23">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>182.732692864418</v>
+        <v>183.5535736666667</v>
       </c>
       <c r="N23">
-        <v>182.732692864418</v>
+        <v>550.660721</v>
       </c>
       <c r="O23">
-        <v>0.1874128321086786</v>
+        <v>0.1833380939603272</v>
       </c>
       <c r="P23">
-        <v>0.1874128321086786</v>
+        <v>0.2036528483002774</v>
       </c>
       <c r="Q23">
-        <v>9219.837073701174</v>
+        <v>8.087921116474332</v>
       </c>
       <c r="R23">
-        <v>9219.837073701174</v>
+        <v>72.79129004826899</v>
       </c>
       <c r="S23">
-        <v>0.1114679799012731</v>
+        <v>7.442446781290701E-05</v>
       </c>
       <c r="T23">
-        <v>0.1114679799012731</v>
+        <v>0.0001064147805932555</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H24">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I24">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J24">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>68.75302304277</v>
+        <v>74.052367</v>
       </c>
       <c r="N24">
-        <v>68.75302304277</v>
+        <v>222.157101</v>
       </c>
       <c r="O24">
-        <v>0.07051392152382488</v>
+        <v>0.07396543443869841</v>
       </c>
       <c r="P24">
-        <v>0.07051392152382488</v>
+        <v>0.08216116505753535</v>
       </c>
       <c r="Q24">
-        <v>3468.955997102773</v>
+        <v>3.262969447121</v>
       </c>
       <c r="R24">
-        <v>3468.955997102773</v>
+        <v>29.366725024089</v>
       </c>
       <c r="S24">
-        <v>0.0419397343220325</v>
+        <v>3.002560993048065E-05</v>
       </c>
       <c r="T24">
-        <v>0.0419397343220325</v>
+        <v>4.293169688445727E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.044063</v>
+      </c>
+      <c r="H25">
+        <v>0.132189</v>
+      </c>
+      <c r="I25">
+        <v>0.0004059411015204066</v>
+      </c>
+      <c r="J25">
+        <v>0.0005225302836734765</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>199.6886825</v>
+      </c>
+      <c r="N25">
+        <v>399.377365</v>
+      </c>
+      <c r="O25">
+        <v>0.1994542612473658</v>
+      </c>
+      <c r="P25">
+        <v>0.1477031769783876</v>
+      </c>
+      <c r="Q25">
+        <v>8.7988824169975</v>
+      </c>
+      <c r="R25">
+        <v>52.793294501985</v>
+      </c>
+      <c r="S25">
+        <v>8.096668251369463E-05</v>
+      </c>
+      <c r="T25">
+        <v>7.71793829659906E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.439148</v>
+      </c>
+      <c r="H26">
+        <v>13.317444</v>
+      </c>
+      <c r="I26">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J26">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>99.91867449999999</v>
+      </c>
+      <c r="N26">
+        <v>199.837349</v>
+      </c>
+      <c r="O26">
+        <v>0.09980137661138361</v>
+      </c>
+      <c r="P26">
+        <v>0.07390657035918602</v>
+      </c>
+      <c r="Q26">
+        <v>443.553784069326</v>
+      </c>
+      <c r="R26">
+        <v>2661.322704415956</v>
+      </c>
+      <c r="S26">
+        <v>0.004081549986747503</v>
+      </c>
+      <c r="T26">
+        <v>0.003890631303422103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.439148</v>
+      </c>
+      <c r="H27">
+        <v>13.317444</v>
+      </c>
+      <c r="I27">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J27">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>302.8987833333333</v>
+      </c>
+      <c r="N27">
+        <v>908.6963499999999</v>
+      </c>
+      <c r="O27">
+        <v>0.3025432002761394</v>
+      </c>
+      <c r="P27">
+        <v>0.3360664613620876</v>
+      </c>
+      <c r="Q27">
+        <v>1344.6125282366</v>
+      </c>
+      <c r="R27">
+        <v>12101.5127541294</v>
+      </c>
+      <c r="S27">
+        <v>0.01237302767762398</v>
+      </c>
+      <c r="T27">
+        <v>0.01769139994253731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.439148</v>
+      </c>
+      <c r="H28">
+        <v>13.317444</v>
+      </c>
+      <c r="I28">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J28">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>141.0632323333333</v>
+      </c>
+      <c r="N28">
+        <v>423.189697</v>
+      </c>
+      <c r="O28">
+        <v>0.1408976334660855</v>
+      </c>
+      <c r="P28">
+        <v>0.1565097779425262</v>
+      </c>
+      <c r="Q28">
+        <v>626.2005656860521</v>
+      </c>
+      <c r="R28">
+        <v>5635.805091174469</v>
+      </c>
+      <c r="S28">
+        <v>0.005762252521280961</v>
+      </c>
+      <c r="T28">
+        <v>0.008239075881825849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.439148</v>
+      </c>
+      <c r="H29">
+        <v>13.317444</v>
+      </c>
+      <c r="I29">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J29">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>183.5535736666667</v>
+      </c>
+      <c r="N29">
+        <v>550.660721</v>
+      </c>
+      <c r="O29">
+        <v>0.1833380939603272</v>
+      </c>
+      <c r="P29">
+        <v>0.2036528483002774</v>
+      </c>
+      <c r="Q29">
+        <v>814.821479435236</v>
+      </c>
+      <c r="R29">
+        <v>7333.393314917123</v>
+      </c>
+      <c r="S29">
+        <v>0.007497928589581522</v>
+      </c>
+      <c r="T29">
+        <v>0.01072080794410251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.439148</v>
+      </c>
+      <c r="H30">
+        <v>13.317444</v>
+      </c>
+      <c r="I30">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J30">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>74.052367</v>
+      </c>
+      <c r="N30">
+        <v>222.157101</v>
+      </c>
+      <c r="O30">
+        <v>0.07396543443869841</v>
+      </c>
+      <c r="P30">
+        <v>0.08216116505753535</v>
+      </c>
+      <c r="Q30">
+        <v>328.729416863316</v>
+      </c>
+      <c r="R30">
+        <v>2958.564751769844</v>
+      </c>
+      <c r="S30">
+        <v>0.003024944426654411</v>
+      </c>
+      <c r="T30">
+        <v>0.004325174326787661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.439148</v>
+      </c>
+      <c r="H31">
+        <v>13.317444</v>
+      </c>
+      <c r="I31">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J31">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>199.6886825</v>
+      </c>
+      <c r="N31">
+        <v>399.377365</v>
+      </c>
+      <c r="O31">
+        <v>0.1994542612473658</v>
+      </c>
+      <c r="P31">
+        <v>0.1477031769783876</v>
+      </c>
+      <c r="Q31">
+        <v>886.4476155425101</v>
+      </c>
+      <c r="R31">
+        <v>5318.68569325506</v>
+      </c>
+      <c r="S31">
+        <v>0.008157027137219493</v>
+      </c>
+      <c r="T31">
+        <v>0.007775473833708808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>70.333607</v>
+      </c>
+      <c r="H32">
+        <v>140.667214</v>
+      </c>
+      <c r="I32">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J32">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>99.91867449999999</v>
+      </c>
+      <c r="N32">
+        <v>199.837349</v>
+      </c>
+      <c r="O32">
+        <v>0.09980137661138361</v>
+      </c>
+      <c r="P32">
+        <v>0.07390657035918602</v>
+      </c>
+      <c r="Q32">
+        <v>7027.640784243921</v>
+      </c>
+      <c r="R32">
+        <v>28110.56313697568</v>
+      </c>
+      <c r="S32">
+        <v>0.0646678445320485</v>
+      </c>
+      <c r="T32">
+        <v>0.04109529322245139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>70.333607</v>
+      </c>
+      <c r="H33">
+        <v>140.667214</v>
+      </c>
+      <c r="I33">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J33">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>302.8987833333333</v>
+      </c>
+      <c r="N33">
+        <v>908.6963499999999</v>
+      </c>
+      <c r="O33">
+        <v>0.3025432002761394</v>
+      </c>
+      <c r="P33">
+        <v>0.3360664613620876</v>
+      </c>
+      <c r="Q33">
+        <v>21303.96398774482</v>
+      </c>
+      <c r="R33">
+        <v>127823.7839264689</v>
+      </c>
+      <c r="S33">
+        <v>0.1960375428073422</v>
+      </c>
+      <c r="T33">
+        <v>0.18686768584696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>70.333607</v>
+      </c>
+      <c r="H34">
+        <v>140.667214</v>
+      </c>
+      <c r="I34">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J34">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>141.0632323333333</v>
+      </c>
+      <c r="N34">
+        <v>423.189697</v>
+      </c>
+      <c r="O34">
+        <v>0.1408976334660855</v>
+      </c>
+      <c r="P34">
+        <v>0.1565097779425262</v>
+      </c>
+      <c r="Q34">
+        <v>9921.485945082361</v>
+      </c>
+      <c r="R34">
+        <v>59528.91567049416</v>
+      </c>
+      <c r="S34">
+        <v>0.09129679935576246</v>
+      </c>
+      <c r="T34">
+        <v>0.0870262980066622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>50.455323178223</v>
-      </c>
-      <c r="H25">
-        <v>50.455323178223</v>
-      </c>
-      <c r="I25">
-        <v>0.5947723997716127</v>
-      </c>
-      <c r="J25">
-        <v>0.5947723997716127</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>199.682148716699</v>
-      </c>
-      <c r="N25">
-        <v>199.682148716699</v>
-      </c>
-      <c r="O25">
-        <v>0.2047963964516717</v>
-      </c>
-      <c r="P25">
-        <v>0.2047963964516717</v>
-      </c>
-      <c r="Q25">
-        <v>10075.02734642303</v>
-      </c>
-      <c r="R25">
-        <v>10075.02734642303</v>
-      </c>
-      <c r="S25">
-        <v>0.1218072441821393</v>
-      </c>
-      <c r="T25">
-        <v>0.1218072441821393</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>70.333607</v>
+      </c>
+      <c r="H35">
+        <v>140.667214</v>
+      </c>
+      <c r="I35">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J35">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>183.5535736666667</v>
+      </c>
+      <c r="N35">
+        <v>550.660721</v>
+      </c>
+      <c r="O35">
+        <v>0.1833380939603272</v>
+      </c>
+      <c r="P35">
+        <v>0.2036528483002774</v>
+      </c>
+      <c r="Q35">
+        <v>12909.98491371688</v>
+      </c>
+      <c r="R35">
+        <v>77459.90948230129</v>
+      </c>
+      <c r="S35">
+        <v>0.1187967517040862</v>
+      </c>
+      <c r="T35">
+        <v>0.1132399119024617</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>70.333607</v>
+      </c>
+      <c r="H36">
+        <v>140.667214</v>
+      </c>
+      <c r="I36">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J36">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>74.052367</v>
+      </c>
+      <c r="N36">
+        <v>222.157101</v>
+      </c>
+      <c r="O36">
+        <v>0.07396543443869841</v>
+      </c>
+      <c r="P36">
+        <v>0.08216116505753535</v>
+      </c>
+      <c r="Q36">
+        <v>5208.370077997769</v>
+      </c>
+      <c r="R36">
+        <v>31250.22046798662</v>
+      </c>
+      <c r="S36">
+        <v>0.04792704647404224</v>
+      </c>
+      <c r="T36">
+        <v>0.04568520976048751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>70.333607</v>
+      </c>
+      <c r="H37">
+        <v>140.667214</v>
+      </c>
+      <c r="I37">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J37">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>199.6886825</v>
+      </c>
+      <c r="N37">
+        <v>399.377365</v>
+      </c>
+      <c r="O37">
+        <v>0.1994542612473658</v>
+      </c>
+      <c r="P37">
+        <v>0.1477031769783876</v>
+      </c>
+      <c r="Q37">
+        <v>14044.82531730278</v>
+      </c>
+      <c r="R37">
+        <v>56179.30126921111</v>
+      </c>
+      <c r="S37">
+        <v>0.1292394713935041</v>
+      </c>
+      <c r="T37">
+        <v>0.08212944178460352</v>
       </c>
     </row>
   </sheetData>
